--- a/nmadb/482382.xlsx
+++ b/nmadb/482382.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18200" windowHeight="11560"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="11565"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -109,12 +109,6 @@
     <t>-1.82, 0.24</t>
   </si>
   <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
     <t>-17.94, 8.62</t>
   </si>
   <si>
@@ -136,17 +130,23 @@
     <t>-2.32, -0.60</t>
   </si>
   <si>
-    <t>tx</t>
-  </si>
-  <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>sd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -504,19 +504,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:I20"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="8.83203125" style="2"/>
-    <col min="11" max="11" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="8.85546875" style="2"/>
+    <col min="11" max="11" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -530,16 +530,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>3</v>
@@ -688,7 +688,7 @@
         <v>-4.66</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K6" t="s">
         <v>11</v>
@@ -748,7 +748,7 @@
         <v>-0.7</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K8" t="s">
         <v>13</v>
@@ -808,7 +808,7 @@
         <v>-1.18</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -856,7 +856,7 @@
         <v>-4.5</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -904,7 +904,7 @@
         <v>1.2</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -952,7 +952,7 @@
         <v>-0.97</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1000,7 +1000,7 @@
         <v>-1.46</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1040,12 +1040,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1057,12 +1057,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
